--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_CFI-PortNeal.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_CFI-PortNeal.xlsx
@@ -599,10 +599,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -622,10 +622,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D10" t="n">
         <v>0.2</v>
@@ -637,7 +637,7 @@
         <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -843,10 +843,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.37</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.034</v>
+        <v>0.024</v>
       </c>
       <c r="D10" t="n">
         <v>0.000000000000000028</v>
@@ -881,7 +881,7 @@
         <v>0.000000000000000016</v>
       </c>
       <c r="G10" t="n">
-        <v>0.036</v>
+        <v>0.000000000000000013</v>
       </c>
     </row>
   </sheetData>
